--- a/draft.xlsx
+++ b/draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\Fantasy Football 24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB252440-0880-4A68-93F1-FEF4D21BFBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C3F33-9F82-4B3A-9F9A-AB1A24D05E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Pick</t>
   </si>
   <si>
-    <t>Aida's Astounding Team</t>
-  </si>
-  <si>
     <t>Christian McCaffrey</t>
   </si>
   <si>
@@ -52,15 +49,9 @@
     <t>Bijan Robinson</t>
   </si>
   <si>
-    <t>Kelly's Deluxe Team</t>
-  </si>
-  <si>
     <t>Breece Hall</t>
   </si>
   <si>
-    <t>Magic Mikaela</t>
-  </si>
-  <si>
     <t>Jonathan Taylor</t>
   </si>
   <si>
@@ -680,6 +671,15 @@
   </si>
   <si>
     <t>Jalin Hyatt</t>
+  </si>
+  <si>
+    <t>A's Astounding Team</t>
+  </si>
+  <si>
+    <t>K's Deluxe Team</t>
+  </si>
+  <si>
+    <t>Magic M</t>
   </si>
 </sst>
 </file>
@@ -744,6 +744,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -771,20 +785,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DA82DDD-6B18-4105-BC6E-633858ACE8EC}" name="draft" displayName="draft" ref="A1:D205" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DA82DDD-6B18-4105-BC6E-633858ACE8EC}" name="draft" displayName="draft" ref="A1:D205" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D205" xr:uid="{5DA82DDD-6B18-4105-BC6E-633858ACE8EC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BB7F4845-C0BE-48E1-A546-230E83CC419C}" name="Team"/>
@@ -1099,10 +1099,13 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1120,10 +1123,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1134,10 +1137,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1148,10 +1151,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1162,10 +1165,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1176,10 +1179,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1190,10 +1193,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1204,10 +1207,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1218,10 +1221,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1232,10 +1235,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1246,10 +1249,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1260,10 +1263,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1274,10 +1277,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1288,10 +1291,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1302,10 +1305,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1316,10 +1319,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1330,10 +1333,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1344,10 +1347,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1358,10 +1361,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1372,10 +1375,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1386,10 +1389,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1400,10 +1403,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1414,10 +1417,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1428,10 +1431,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1442,10 +1445,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1456,10 +1459,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1470,10 +1473,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1484,10 +1487,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1498,10 +1501,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1512,10 +1515,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1526,10 +1529,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1540,10 +1543,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1554,10 +1557,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1568,10 +1571,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1582,10 +1585,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1596,10 +1599,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1610,10 +1613,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1624,10 +1627,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1638,10 +1641,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1652,10 +1655,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1680,10 +1683,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1694,10 +1697,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1708,10 +1711,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1722,10 +1725,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1736,10 +1739,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1750,10 +1753,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1764,10 +1767,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1778,10 +1781,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1792,10 +1795,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1806,10 +1809,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1820,10 +1823,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1834,10 +1837,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1848,10 +1851,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1862,10 +1865,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1876,10 +1879,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1904,10 +1907,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1918,10 +1921,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1932,10 +1935,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1946,10 +1949,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1960,10 +1963,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1974,10 +1977,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1988,10 +1991,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -2002,10 +2005,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -2016,10 +2019,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -2030,10 +2033,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -2044,10 +2047,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -2058,10 +2061,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -2072,10 +2075,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -2086,10 +2089,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -2100,10 +2103,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -2114,10 +2117,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -2128,10 +2131,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -2142,10 +2145,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -2156,10 +2159,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -2170,10 +2173,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -2184,10 +2187,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -2212,10 +2215,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80">
         <v>7</v>
@@ -2226,10 +2229,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>7</v>
@@ -2240,10 +2243,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C82">
         <v>7</v>
@@ -2254,10 +2257,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -2268,10 +2271,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -2282,10 +2285,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -2296,10 +2299,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <v>8</v>
@@ -2310,10 +2313,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -2324,10 +2327,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C88">
         <v>8</v>
@@ -2338,10 +2341,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -2352,10 +2355,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -2366,10 +2369,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C91">
         <v>8</v>
@@ -2380,10 +2383,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -2394,10 +2397,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C93">
         <v>8</v>
@@ -2408,10 +2411,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C94">
         <v>8</v>
@@ -2422,10 +2425,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C95">
         <v>8</v>
@@ -2436,10 +2439,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96">
         <v>8</v>
@@ -2450,10 +2453,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C97">
         <v>8</v>
@@ -2464,10 +2467,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -2478,10 +2481,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -2492,10 +2495,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -2506,10 +2509,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -2520,10 +2523,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C102">
         <v>9</v>
@@ -2534,10 +2537,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C103">
         <v>9</v>
@@ -2548,10 +2551,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C104">
         <v>9</v>
@@ -2562,10 +2565,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -2576,10 +2579,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -2590,10 +2593,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -2604,10 +2607,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -2618,10 +2621,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -2632,10 +2635,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C110">
         <v>10</v>
@@ -2646,10 +2649,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C111">
         <v>10</v>
@@ -2660,10 +2663,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C112">
         <v>10</v>
@@ -2674,10 +2677,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C113">
         <v>10</v>
@@ -2688,10 +2691,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C114">
         <v>10</v>
@@ -2702,10 +2705,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C115">
         <v>10</v>
@@ -2716,10 +2719,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C116">
         <v>10</v>
@@ -2730,10 +2733,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C117">
         <v>10</v>
@@ -2744,10 +2747,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C118">
         <v>10</v>
@@ -2758,10 +2761,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C119">
         <v>10</v>
@@ -2772,10 +2775,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C120">
         <v>10</v>
@@ -2786,10 +2789,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C121">
         <v>10</v>
@@ -2800,10 +2803,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -2814,10 +2817,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C123">
         <v>11</v>
@@ -2828,10 +2831,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -2842,10 +2845,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C125">
         <v>11</v>
@@ -2856,10 +2859,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -2870,10 +2873,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -2884,10 +2887,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C128">
         <v>11</v>
@@ -2898,10 +2901,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C129">
         <v>11</v>
@@ -2912,10 +2915,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C130">
         <v>11</v>
@@ -2926,10 +2929,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C131">
         <v>11</v>
@@ -2940,10 +2943,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C132">
         <v>11</v>
@@ -2954,10 +2957,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C133">
         <v>11</v>
@@ -2968,10 +2971,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C134">
         <v>12</v>
@@ -2982,10 +2985,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C135">
         <v>12</v>
@@ -2996,10 +2999,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C136">
         <v>12</v>
@@ -3010,10 +3013,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C137">
         <v>12</v>
@@ -3024,10 +3027,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C138">
         <v>12</v>
@@ -3038,10 +3041,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C139">
         <v>12</v>
@@ -3052,10 +3055,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C140">
         <v>12</v>
@@ -3066,10 +3069,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C141">
         <v>12</v>
@@ -3080,10 +3083,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C142">
         <v>12</v>
@@ -3094,10 +3097,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C143">
         <v>12</v>
@@ -3108,10 +3111,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C144">
         <v>12</v>
@@ -3122,10 +3125,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C145">
         <v>12</v>
@@ -3136,10 +3139,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C146">
         <v>13</v>
@@ -3150,10 +3153,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C147">
         <v>13</v>
@@ -3164,10 +3167,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C148">
         <v>13</v>
@@ -3178,10 +3181,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C149">
         <v>13</v>
@@ -3192,10 +3195,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C150">
         <v>13</v>
@@ -3206,10 +3209,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C151">
         <v>13</v>
@@ -3220,10 +3223,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C152">
         <v>13</v>
@@ -3234,10 +3237,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C153">
         <v>13</v>
@@ -3248,10 +3251,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C154">
         <v>13</v>
@@ -3262,10 +3265,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C155">
         <v>13</v>
@@ -3276,10 +3279,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C156">
         <v>13</v>
@@ -3290,10 +3293,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B157" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C157">
         <v>13</v>
@@ -3304,10 +3307,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C158">
         <v>14</v>
@@ -3318,10 +3321,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C159">
         <v>14</v>
@@ -3332,10 +3335,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C160">
         <v>14</v>
@@ -3346,10 +3349,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C161">
         <v>14</v>
@@ -3360,10 +3363,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C162">
         <v>14</v>
@@ -3374,10 +3377,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C163">
         <v>14</v>
@@ -3388,10 +3391,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C164">
         <v>14</v>
@@ -3402,10 +3405,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C165">
         <v>14</v>
@@ -3416,10 +3419,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B166" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C166">
         <v>14</v>
@@ -3430,10 +3433,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C167">
         <v>14</v>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C168">
         <v>14</v>
@@ -3458,10 +3461,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C169">
         <v>14</v>
@@ -3472,10 +3475,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C170">
         <v>15</v>
@@ -3486,10 +3489,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C171">
         <v>15</v>
@@ -3500,10 +3503,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C172">
         <v>15</v>
@@ -3514,10 +3517,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C173">
         <v>15</v>
@@ -3528,10 +3531,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B174" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C174">
         <v>15</v>
@@ -3542,10 +3545,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C175">
         <v>15</v>
@@ -3556,10 +3559,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C176">
         <v>15</v>
@@ -3570,10 +3573,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C177">
         <v>15</v>
@@ -3584,10 +3587,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C178">
         <v>15</v>
@@ -3598,10 +3601,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C179">
         <v>15</v>
@@ -3612,10 +3615,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C180">
         <v>15</v>
@@ -3626,10 +3629,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C181">
         <v>15</v>
@@ -3640,10 +3643,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C182">
         <v>16</v>
@@ -3654,10 +3657,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C183">
         <v>16</v>
@@ -3668,10 +3671,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C184">
         <v>16</v>
@@ -3682,10 +3685,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C185">
         <v>16</v>
@@ -3696,10 +3699,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C186">
         <v>16</v>
@@ -3710,10 +3713,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C187">
         <v>16</v>
@@ -3724,10 +3727,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C188">
         <v>16</v>
@@ -3738,10 +3741,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B189" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C189">
         <v>16</v>
@@ -3752,10 +3755,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B190" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C190">
         <v>16</v>
@@ -3766,10 +3769,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C191">
         <v>16</v>
@@ -3780,10 +3783,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C192">
         <v>16</v>
@@ -3794,10 +3797,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B193" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C193">
         <v>16</v>
@@ -3808,10 +3811,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C194">
         <v>17</v>
@@ -3822,10 +3825,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C195">
         <v>17</v>
@@ -3836,10 +3839,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C196">
         <v>17</v>
@@ -3850,10 +3853,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B197" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C197">
         <v>17</v>
@@ -3864,10 +3867,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B198" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C198">
         <v>17</v>
@@ -3878,10 +3881,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C199">
         <v>17</v>
@@ -3892,10 +3895,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C200">
         <v>17</v>
@@ -3906,10 +3909,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C201">
         <v>17</v>
@@ -3920,10 +3923,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C202">
         <v>17</v>
@@ -3934,10 +3937,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C203">
         <v>17</v>
@@ -3948,10 +3951,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B204" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C204">
         <v>17</v>
@@ -3962,10 +3965,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B205" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C205">
         <v>17</v>
